--- a/EventAnalysis/SILO_Gregors_1985-2020_top50.xlsx
+++ b/EventAnalysis/SILO_Gregors_1985-2020_top50.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbc7c7422093ad77/Documents/Uni/Honours Thesis/Data_processing/EventAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F95C43-7FA2-49C7-92EA-B9FBE985F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{68F95C43-7FA2-49C7-92EA-B9FBE985F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5AD680-09BB-4E11-BFDB-06C4F3488A1A}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1665" windowWidth="31350" windowHeight="18435"/>
+    <workbookView xWindow="6540" yWindow="2205" windowWidth="31350" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SILO_Gregors_1985-2020_top50" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SILO_Gregors_1985-2020_top50'!$A$1:$E$201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5862,16 +5865,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7492,6 +7498,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E201">
+      <sortCondition ref="A1:A201"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
